--- a/data/income_statement/3digits/total/910_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/910_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>910-Libraries, archives, museums and other cultural activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>910-Libraries, archives, museums and other cultural activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>32667.64842</v>
@@ -962,31 +868,36 @@
         <v>115479.31211</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>140721.53581</v>
+        <v>144879.21146</v>
       </c>
       <c r="H5" s="47" t="n">
         <v>208427.66791</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>262202.61341</v>
+        <v>269759.76469</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>276932.7063099999</v>
+        <v>276932.70631</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>371118.57722</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>494621.1583199999</v>
+        <v>498787.27986</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>620967.1013400001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>638448.3247699999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>429763.302</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>31655.8084</v>
@@ -1001,13 +912,13 @@
         <v>101945.42854</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>134630.51764</v>
+        <v>138768.99308</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>204848.53035</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>249083.50198</v>
+        <v>256549.11199</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>264136.42844</v>
@@ -1016,16 +927,21 @@
         <v>363385.85979</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>487249.6557999999</v>
+        <v>491415.4999599999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>615000.9568299999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>621695.71585</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>424793.827</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>0.6264500000000001</v>
@@ -1040,7 +956,7 @@
         <v>190.45021</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>652.8757800000001</v>
+        <v>652.87578</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>643.12425</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>560.79061</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>443.215</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1011.21357</v>
@@ -1073,19 +994,19 @@
         <v>922.49752</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2764.572110000001</v>
+        <v>2764.57211</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>13343.43336</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5438.14239</v>
+        <v>5457.342600000001</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>2936.01331</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1840.2852</v>
+        <v>1931.82647</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>2421.34687</v>
@@ -1094,22 +1015,27 @@
         <v>5918.46125</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5654.54046</v>
+        <v>5654.81784</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>5405.353899999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16191.81831</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4526.26</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>299.47956</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>286.9737900000001</v>
+        <v>286.97379</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>245.21583</v>
@@ -1127,22 +1053,27 @@
         <v>1957.87044</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2352.563020000001</v>
+        <v>2352.56302</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>8687.92527</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>7397.81348</v>
+        <v>7400.388309999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6217.55858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6222.57891</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>9647.823</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>94.16728000000001</v>
@@ -1169,19 +1100,24 @@
         <v>2145.24573</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8141.421579999999</v>
+        <v>8141.42158</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>7160.7954</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5805.33464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5807.222059999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>9630.207</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>205.31228</v>
@@ -1202,7 +1138,7 @@
         <v>542.8652499999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>342.8643799999999</v>
+        <v>342.86438</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>207.31729</v>
@@ -1211,16 +1147,21 @@
         <v>546.3346899999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>235.82651</v>
+        <v>238.40134</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>410.46217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>413.5950799999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17.387</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>1.76177</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0.229</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>32368.16886</v>
@@ -1274,13 +1220,13 @@
         <v>114508.83092</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>138782.67305</v>
+        <v>142940.3487</v>
       </c>
       <c r="H13" s="47" t="n">
         <v>206865.36363</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>260244.74297</v>
+        <v>267801.89425</v>
       </c>
       <c r="J13" s="47" t="n">
         <v>274580.14329</v>
@@ -1289,16 +1235,21 @@
         <v>362430.65195</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>487223.34484</v>
+        <v>491386.89155</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>614749.54276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>632225.74586</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>420115.479</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>22771.91137</v>
@@ -1313,13 +1264,13 @@
         <v>70521.72367000001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>94916.47885</v>
+        <v>98971.68006</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>123105.26277</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>170105.29042</v>
+        <v>177333.28646</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>198563.36738</v>
@@ -1328,16 +1279,21 @@
         <v>219829.01507</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>277215.46524</v>
+        <v>278006.26969</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>348900.22839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>351087.52215</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>307045.229</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>256.38656</v>
@@ -1358,7 +1314,7 @@
         <v>521.4779</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1549.73715</v>
+        <v>1581.43483</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1153.42275</v>
@@ -1370,13 +1326,18 @@
         <v>2639.22751</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1271.65947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2250.22337</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>91409.60000000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2201.83564</v>
@@ -1391,13 +1352,13 @@
         <v>8940.656949999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6579.04297</v>
+        <v>10125.6807</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>17996.22319</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>12461.89912</v>
+        <v>19155.12506</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>14437.78196</v>
@@ -1406,16 +1367,21 @@
         <v>15708.69286</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>14228.53947</v>
+        <v>15010.32541</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>152616.72365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>153513.32748</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>19809.439</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>20313.50917</v>
@@ -1430,13 +1396,13 @@
         <v>60598.84886</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>72612.37316</v>
+        <v>73120.93664</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>101186.33048</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>153751.34662</v>
+        <v>154254.41904</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>182951.37059</v>
@@ -1445,16 +1411,21 @@
         <v>202658.18913</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>260327.96806</v>
+        <v>260336.98657</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>195010.52621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>195322.65224</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>195510.853</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0.18</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>1.31906</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>315.337</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>9596.25749</v>
@@ -1508,31 +1484,36 @@
         <v>43987.10725</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>43866.19420000001</v>
+        <v>43968.66864</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>83760.10086000001</v>
+        <v>83760.10086000002</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>90139.45255000002</v>
+        <v>90468.60778999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>76016.77591000001</v>
+        <v>76016.77591</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>142601.63688</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>210007.8796</v>
+        <v>213380.62186</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>265849.31437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>281138.22371</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>113070.25</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>18481.89578</v>
@@ -1547,13 +1528,13 @@
         <v>60990.06327</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>65188.51489</v>
+        <v>65459.84465000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>59268.62645</v>
+        <v>59340.49086999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>78313.97669</v>
+        <v>78477.84145000001</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>117715.84785</v>
@@ -1562,16 +1543,21 @@
         <v>120480.15943</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>130526.95488</v>
+        <v>142594.74899</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>165804.98075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>183449.43185</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>120889.348</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1151.07566</v>
@@ -1625,7 +1616,7 @@
         <v>4495.785279999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8824.032929999999</v>
+        <v>8852.666650000001</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>10250.08082</v>
@@ -1640,16 +1631,21 @@
         <v>15030.58507</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>17505.12955</v>
+        <v>17835.06377</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22669.1308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22980.13662</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>10074.252</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>17330.82012</v>
@@ -1664,13 +1660,13 @@
         <v>56494.27799</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>56364.48196000001</v>
+        <v>56607.178</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>49018.54562999999</v>
+        <v>49090.41005</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>64124.80111</v>
+        <v>64288.66587</v>
       </c>
       <c r="J23" s="48" t="n">
         <v>101456.32512</v>
@@ -1679,16 +1675,21 @@
         <v>105449.57436</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>113021.82533</v>
+        <v>124759.68522</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>143135.84995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>160469.29523</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>110815.095</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-8885.638289999999</v>
@@ -1703,13 +1704,13 @@
         <v>-17002.95602</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-21322.32069</v>
+        <v>-21491.17601</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>24491.47441</v>
+        <v>24419.60999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>11825.47586</v>
+        <v>11990.76634</v>
       </c>
       <c r="J24" s="47" t="n">
         <v>-41699.07193999999</v>
@@ -1718,16 +1719,21 @@
         <v>22121.47745</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>79480.92472</v>
+        <v>70785.87287000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>100044.33362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>97688.79186</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-7819.098</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>984.36028</v>
@@ -1748,7 +1754,7 @@
         <v>18123.73135</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>22459.90767</v>
+        <v>22459.9078</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>15693.76599</v>
@@ -1757,16 +1763,21 @@
         <v>12548.01924</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>108444.72489</v>
+        <v>116797.22149</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>51853.50108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>52055.92074</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>60611.711</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>457.32969</v>
@@ -1862,10 +1883,10 @@
         <v>277.08237</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>806.80222</v>
+        <v>806.8022199999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>746.5571900000001</v>
+        <v>746.55719</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>667.5609899999999</v>
@@ -1874,16 +1895,21 @@
         <v>695.25099</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2229.71834</v>
+        <v>2264.58577</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3703.6646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3759.62294</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>17078.622</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>120.82258</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>26.40015</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>957.93209</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>271.87</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>47.12259</v>
@@ -1991,16 +2027,21 @@
         <v>216.05679</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>155.15549</v>
+        <v>217.49157</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>249.45209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>251.73358</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>173.06</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>244.58082</v>
@@ -2021,25 +2062,30 @@
         <v>15272.25861</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>18826.51708</v>
+        <v>18826.51721</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>12099.71636</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>9175.621469999998</v>
+        <v>9175.62147</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>75727.28899</v>
+        <v>75727.28899000002</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>31305.85316</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>29190.159</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,20 +2164,25 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>208.92703</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>956.2741</v>
+        <v>956.2741000000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>949.2364099999999</v>
+        <v>949.23641</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>6747.50833</v>
@@ -2147,16 +2203,21 @@
         <v>2452.36118</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>30288.56816</v>
+        <v>38543.86125</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15515.77656</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>15659.95639</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>13898</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>627.43495</v>
@@ -2165,7 +2226,7 @@
         <v>2883.35717</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>7137.14834</v>
+        <v>7137.148339999999</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>3827.05602</v>
@@ -2177,25 +2238,30 @@
         <v>9773.49847</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>14116.66184</v>
+        <v>14116.66315</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>49733.43659999999</v>
+        <v>49733.4366</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>59286.04938</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>180847.90458</v>
+        <v>180942.29177</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>77831.59974999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>78094.40149999998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>173735.612</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>7.39821</v>
@@ -2219,7 +2285,7 @@
         <v>1010.08112</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>883.3598499999998</v>
+        <v>883.3598499999999</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1422.49898</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>4187.79103</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>748.408</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>258.87271</v>
@@ -2255,7 +2326,7 @@
         <v>627.8808500000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>963.65378</v>
+        <v>963.6537799999999</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>664.8445899999999</v>
@@ -2264,16 +2335,21 @@
         <v>777.98099</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>2987.05727</v>
+        <v>3058.23376</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4646.00949</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4904.19996</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2187.212</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>3.359</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>213.59353</v>
@@ -2327,13 +2408,13 @@
         <v>3172.8559</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>8467.838210000002</v>
+        <v>8467.83821</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>7457.82959</v>
+        <v>7457.829590000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>11789.90449</v>
+        <v>11789.9058</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>47939.97828</v>
@@ -2342,16 +2423,21 @@
         <v>56577.17515</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>150829.42446</v>
+        <v>150852.56305</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>65733.07273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>65736.40211</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>165927.783</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>147.5705</v>
@@ -2450,7 +2546,7 @@
         <v>10.23791</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>352.8477000000001</v>
+        <v>352.8477</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>244.37735</v>
@@ -2459,16 +2555,21 @@
         <v>508.39426</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>25723.76789</v>
+        <v>25723.84</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3264.7265</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3266.0084</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4868.85</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>885.6869799999999</v>
@@ -2483,13 +2584,13 @@
         <v>1788.21167</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>43315.27806</v>
+        <v>43321.4528</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>28082.89574</v>
+        <v>28082.96074</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>43768.40392</v>
+        <v>44003.52561</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>31619.06558</v>
@@ -2498,19 +2599,24 @@
         <v>34604.94639</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>42838.39038999999</v>
+        <v>42843.57895</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>47112.10296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>47324.88144999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>36989.279</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>757.3655299999999</v>
+        <v>757.36553</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>1086.29063</v>
@@ -2522,13 +2628,13 @@
         <v>1301.37788</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>12378.35003</v>
+        <v>12384.52477</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10345.45043</v>
+        <v>10345.51543</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>12121.90725</v>
+        <v>12357.02894</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>15158.56382</v>
@@ -2537,16 +2643,21 @@
         <v>18418.83205</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>21069.49535</v>
+        <v>21074.68391</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>22420.26894</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>22633.04743</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3511.236</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>128.32145</v>
@@ -2581,17 +2692,22 @@
       <c r="M46" s="48" t="n">
         <v>24691.83402</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>33478.043</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-9414.399940000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-7898.63782</v>
+        <v>-7898.637819999999</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>-15351.27483</v>
@@ -2600,13 +2716,13 @@
         <v>-10942.281</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-33711.73463000001</v>
+        <v>-33886.76469</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4758.811550000001</v>
+        <v>4686.882129999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-23599.68223</v>
+        <v>-23669.51462</v>
       </c>
       <c r="J47" s="47" t="n">
         <v>-107357.80813</v>
@@ -2615,16 +2731,21 @@
         <v>-59221.49908</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-35760.64536000001</v>
+        <v>-36202.77636</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>26954.13199</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>24325.42965</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-157932.278</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>632.89498</v>
@@ -2639,13 +2760,13 @@
         <v>889.19601</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1440.2833</v>
+        <v>1644.47967</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1911.94426</v>
+        <v>1914.85164</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1590.12221</v>
+        <v>1693.73021</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>5078.09881</v>
@@ -2654,16 +2775,21 @@
         <v>1786.56083</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11415.9339</v>
+        <v>11599.37128</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>15275.15148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>15642.03239</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2399.655</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6.927449999999999</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>625.96753</v>
@@ -2717,31 +2848,36 @@
         <v>889.19601</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1440.2833</v>
+        <v>1644.47967</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1911.94426</v>
+        <v>1914.85164</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1590.12221</v>
+        <v>1693.73021</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5064.4005</v>
+        <v>5064.400499999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1754.53557</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11397.60841</v>
+        <v>11581.04579</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>15275.15148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>15642.03239</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2399.655</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1019.10548</v>
@@ -2756,13 +2892,13 @@
         <v>1156.83726</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1706.82209</v>
+        <v>1765.47949</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1634.26814</v>
+        <v>1641.7687</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4687.574110000001</v>
+        <v>4704.760679999999</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>3076.62081</v>
@@ -2771,16 +2907,21 @@
         <v>2225.38906</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>7586.309580000001</v>
+        <v>7606.550550000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4383.04996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>4383.34247</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7267.346</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>25.12965</v>
@@ -2849,22 +2995,27 @@
         <v>22.19474</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1953.8495</v>
+        <v>1971.08817</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>40.94125999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>12.004</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>993.97583</v>
+        <v>993.9758300000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>814.07757</v>
+        <v>814.0775699999999</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>1780.90583</v>
@@ -2873,13 +3024,13 @@
         <v>1080.81197</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1539.67757</v>
+        <v>1598.33497</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1522.58279</v>
+        <v>1530.08335</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4653.49419</v>
+        <v>4670.680760000001</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>3023.41796</v>
@@ -2888,19 +3039,24 @@
         <v>2202.9241</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>5632.46008</v>
+        <v>5635.462380000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4342.1087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4342.40121</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7255.342</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-9800.610440000002</v>
+        <v>-9800.61044</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-7739.58284</v>
@@ -2912,13 +3068,13 @@
         <v>-11209.92225</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-33978.27342</v>
+        <v>-34007.76451</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5036.48767</v>
+        <v>4959.965069999998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-26697.13413</v>
+        <v>-26680.54509</v>
       </c>
       <c r="J55" s="47" t="n">
         <v>-105356.33013</v>
@@ -2927,16 +3083,21 @@
         <v>-59660.32731</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-31931.02104</v>
+        <v>-32209.95563</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>37846.23351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>35584.11957</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-162799.969</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>84.99112</v>
@@ -2966,19 +3127,24 @@
         <v>2909.4588</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>7676.711179999999</v>
+        <v>7676.71118</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>12946.47501</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>12948.6553</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2793.451</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-9885.601559999999</v>
+        <v>-9885.601560000001</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>-7934.24397</v>
@@ -2990,28 +3156,31 @@
         <v>-11960.01685</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-34766.83196</v>
+        <v>-34796.32305</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1497.87323</v>
+        <v>1421.35063</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-29370.15783</v>
+        <v>-29353.56879</v>
       </c>
       <c r="J57" s="47" t="n">
         <v>-106435.41342</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-62569.78611000001</v>
+        <v>-62569.78610999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-39607.73222000001</v>
+        <v>-39886.66681</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>24899.7585</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>22635.46427</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-165593.42</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>42</v>
@@ -3044,28 +3216,31 @@
         <v>58</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I59" s="35" t="n">
+        <v>74</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>73</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>72</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>84</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>91</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>